--- a/ICLR19/results.xlsx
+++ b/ICLR19/results.xlsx
@@ -1,18 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="28810"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="27309"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wenhu.chen/Documents/ICLR19/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wenhuchen/Dirichlet-Out-of-Distribution-Detection/ICLR19/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="38400" windowHeight="21140" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="15540" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="150000" concurrentCalc="0"/>
   <extLst>
@@ -27,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>Classification Loss (\eta=1)</t>
   </si>
@@ -45,6 +47,24 @@
   </si>
   <si>
     <t>KL Loss (\eta=0.01)</t>
+  </si>
+  <si>
+    <t>T</t>
+  </si>
+  <si>
+    <t>epsilon</t>
+  </si>
+  <si>
+    <t>FPR for log-scaling (T=1)</t>
+  </si>
+  <si>
+    <t>FPR for temperature-scaling (T=100)</t>
+  </si>
+  <si>
+    <t>FPR for temperature-scaling</t>
+  </si>
+  <si>
+    <t>FPR for log-scaling</t>
   </si>
 </sst>
 </file>
@@ -100,8 +120,16 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="5">
+  <cellStyleXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -111,11 +139,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="5">
+  <cellStyles count="13">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="10" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="7" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="9" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="11" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -149,7 +185,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="2400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -162,14 +198,14 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr lang="en-US" sz="2400"/>
+              <a:rPr lang="en-US"/>
               <a:t>Training</a:t>
             </a:r>
             <a:r>
-              <a:rPr lang="en-US" sz="2400" baseline="0"/>
+              <a:rPr lang="en-US" baseline="0"/>
               <a:t> Loss Curve for ResNet18</a:t>
             </a:r>
-            <a:endParaRPr lang="en-US" sz="2400"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:rich>
       </c:tx>
@@ -187,7 +223,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="2400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1">
                   <a:lumMod val="65000"/>
@@ -205,7 +241,17 @@
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
-      <c:layout/>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.0419108681164071"/>
+          <c:y val="0.149963503649635"/>
+          <c:w val="0.931271567151285"/>
+          <c:h val="0.56370366112995"/>
+        </c:manualLayout>
+      </c:layout>
       <c:lineChart>
         <c:grouping val="standard"/>
         <c:varyColors val="0"/>
@@ -600,7 +646,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>KL Loss (\eta=1)</c:v>
+                  <c:v>Classification Loss (\eta=0.1)</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -624,349 +670,286 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="115"/>
                 <c:pt idx="0">
-                  <c:v>0.1004</c:v>
+                  <c:v>2.099</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>1.674</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.466</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.328</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.219</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.131</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.048</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.98</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.917</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.872</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.835</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.793</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.764</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.737</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.713</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.711</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.683</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.663</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.609</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.601</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.583</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.572</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.557</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.544</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.528</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.525</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.514</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.498</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.497</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.481</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.48</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.462</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.46</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.452</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.445</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.436</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.432</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0.419</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0.413</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0.405</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0.394</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0.398</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0.392</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>0.39</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>0.385</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>0.377</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>0.378</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>0.368</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>0.37</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>0.371</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>0.361</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>0.362</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>0.355</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>0.352</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>0.348</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>0.352</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>0.277</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>0.246</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>0.23</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>0.222</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>0.218</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>0.21</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>0.201</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>0.203</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>0.197</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>0.197</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>0.192</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>0.19</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>0.187</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>0.185</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>0.184</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>0.182</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>0.182</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>0.18</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>0.173</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>0.172</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>0.171</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>0.168</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>0.172</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>0.167</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>0.169</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>0.165</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>0.168</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>0.163</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>0.163</c:v>
+                </c:pt>
+                <c:pt idx="85">
                   <c:v>0.16</c:v>
                 </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.165</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.1688</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.1671</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.167</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.1666</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.1653</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.1644</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.1652</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0.1598</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0.1513</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>0.1482</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>0.1437</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>0.1397</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>0.1337</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>0.1273</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>0.1239</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>0.1205</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>0.1181</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>0.1164</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>0.1159</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>0.1148</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>0.1112</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>0.1104</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>0.1088</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>0.106</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>0.1045</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>0.1037</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>0.1028</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>0.1014</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>0.099</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>0.0978</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>0.0985</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>0.097</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>0.0952</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>0.093</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>0.092</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>0.0747</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>0.0676</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>0.0643</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>0.0621</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>0.0609</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>0.0605</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>0.0552</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>0.0573</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>0.0552</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>0.0543</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>0.0535</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>0.0539</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>0.0547</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>0.0538</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>0.0522</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>0.0523</c:v>
-                </c:pt>
-                <c:pt idx="54">
-                  <c:v>0.0511</c:v>
-                </c:pt>
-                <c:pt idx="55">
-                  <c:v>0.0498</c:v>
-                </c:pt>
-                <c:pt idx="56">
-                  <c:v>0.0518</c:v>
-                </c:pt>
-                <c:pt idx="57">
-                  <c:v>0.0491</c:v>
-                </c:pt>
-                <c:pt idx="58">
-                  <c:v>0.0496</c:v>
-                </c:pt>
-                <c:pt idx="59">
-                  <c:v>0.048</c:v>
-                </c:pt>
-                <c:pt idx="60">
-                  <c:v>0.0486</c:v>
-                </c:pt>
-                <c:pt idx="61">
-                  <c:v>0.0481</c:v>
-                </c:pt>
-                <c:pt idx="62">
-                  <c:v>0.0455</c:v>
-                </c:pt>
-                <c:pt idx="63">
-                  <c:v>0.0469</c:v>
-                </c:pt>
-                <c:pt idx="64">
-                  <c:v>0.0463</c:v>
-                </c:pt>
-                <c:pt idx="65">
-                  <c:v>0.0448</c:v>
-                </c:pt>
-                <c:pt idx="66">
-                  <c:v>0.0456</c:v>
-                </c:pt>
-                <c:pt idx="67">
-                  <c:v>0.0457</c:v>
-                </c:pt>
-                <c:pt idx="68">
-                  <c:v>0.0439</c:v>
-                </c:pt>
-                <c:pt idx="69">
-                  <c:v>0.0454</c:v>
-                </c:pt>
-                <c:pt idx="70">
-                  <c:v>0.0447</c:v>
-                </c:pt>
-                <c:pt idx="71">
-                  <c:v>0.0442</c:v>
-                </c:pt>
-                <c:pt idx="72">
-                  <c:v>0.0433</c:v>
-                </c:pt>
-                <c:pt idx="73">
-                  <c:v>0.044</c:v>
-                </c:pt>
-                <c:pt idx="74">
-                  <c:v>0.0424</c:v>
-                </c:pt>
-                <c:pt idx="75">
-                  <c:v>0.0428</c:v>
-                </c:pt>
-                <c:pt idx="76">
-                  <c:v>0.0421</c:v>
-                </c:pt>
-                <c:pt idx="77">
-                  <c:v>0.0437</c:v>
-                </c:pt>
-                <c:pt idx="78">
-                  <c:v>0.0371</c:v>
-                </c:pt>
-                <c:pt idx="79">
-                  <c:v>0.0313</c:v>
-                </c:pt>
-                <c:pt idx="80">
-                  <c:v>0.0316</c:v>
-                </c:pt>
-                <c:pt idx="81">
-                  <c:v>0.0318</c:v>
-                </c:pt>
-                <c:pt idx="82">
-                  <c:v>0.0324</c:v>
-                </c:pt>
-                <c:pt idx="83">
-                  <c:v>0.0311</c:v>
-                </c:pt>
-                <c:pt idx="84">
-                  <c:v>0.0318</c:v>
-                </c:pt>
-                <c:pt idx="85">
-                  <c:v>0.0308</c:v>
-                </c:pt>
                 <c:pt idx="86">
-                  <c:v>0.0298</c:v>
+                  <c:v>0.162</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>0.0311</c:v>
+                  <c:v>0.16</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>0.0287</c:v>
+                  <c:v>0.16</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>0.0295</c:v>
+                  <c:v>0.162</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>0.0294</c:v>
+                  <c:v>0.161</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>0.0286</c:v>
+                  <c:v>0.154</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>0.0282</c:v>
+                  <c:v>0.157</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>0.0284</c:v>
-                </c:pt>
-                <c:pt idx="94">
-                  <c:v>0.0289</c:v>
-                </c:pt>
-                <c:pt idx="95">
-                  <c:v>0.0271</c:v>
-                </c:pt>
-                <c:pt idx="96">
-                  <c:v>0.0284</c:v>
-                </c:pt>
-                <c:pt idx="97">
-                  <c:v>0.0287</c:v>
-                </c:pt>
-                <c:pt idx="98">
-                  <c:v>0.027</c:v>
-                </c:pt>
-                <c:pt idx="99">
-                  <c:v>0.0273</c:v>
-                </c:pt>
-                <c:pt idx="100">
-                  <c:v>0.028</c:v>
-                </c:pt>
-                <c:pt idx="101">
-                  <c:v>0.0281</c:v>
-                </c:pt>
-                <c:pt idx="102">
-                  <c:v>0.0281</c:v>
-                </c:pt>
-                <c:pt idx="103">
-                  <c:v>0.0271</c:v>
-                </c:pt>
-                <c:pt idx="104">
-                  <c:v>0.0259</c:v>
-                </c:pt>
-                <c:pt idx="105">
-                  <c:v>0.0264</c:v>
-                </c:pt>
-                <c:pt idx="106">
-                  <c:v>0.026</c:v>
-                </c:pt>
-                <c:pt idx="107">
-                  <c:v>0.0269</c:v>
-                </c:pt>
-                <c:pt idx="108">
-                  <c:v>0.0264</c:v>
-                </c:pt>
-                <c:pt idx="109">
-                  <c:v>0.0265</c:v>
-                </c:pt>
-                <c:pt idx="110">
-                  <c:v>0.0269</c:v>
-                </c:pt>
-                <c:pt idx="111">
-                  <c:v>0.0247</c:v>
-                </c:pt>
-                <c:pt idx="112">
-                  <c:v>0.0251</c:v>
-                </c:pt>
-                <c:pt idx="113">
-                  <c:v>0.0252</c:v>
-                </c:pt>
-                <c:pt idx="114">
-                  <c:v>0.0252</c:v>
+                  <c:v>0.159</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -982,7 +965,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Classification Loss (\eta=0.1)</c:v>
+                  <c:v>Classification Loss (\eta=0.01)</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1006,286 +989,283 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="115"/>
                 <c:pt idx="0">
-                  <c:v>2.099</c:v>
+                  <c:v>1.965</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.674</c:v>
+                  <c:v>1.581</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.466</c:v>
+                  <c:v>1.289</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.328</c:v>
+                  <c:v>1.121</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.219</c:v>
+                  <c:v>0.985</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.131</c:v>
+                  <c:v>0.9</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.048</c:v>
+                  <c:v>0.835</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.98</c:v>
+                  <c:v>0.776</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.917</c:v>
+                  <c:v>0.738</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.872</c:v>
+                  <c:v>0.701</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.835</c:v>
+                  <c:v>0.665</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.793</c:v>
+                  <c:v>0.631</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.764</c:v>
+                  <c:v>0.607</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.737</c:v>
+                  <c:v>0.588</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.713</c:v>
+                  <c:v>0.561</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.711</c:v>
+                  <c:v>0.536</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.683</c:v>
+                  <c:v>0.535</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.663</c:v>
+                  <c:v>0.52</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.609</c:v>
+                  <c:v>0.497</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0.601</c:v>
+                  <c:v>0.487</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0.583</c:v>
+                  <c:v>0.463</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>0.572</c:v>
+                  <c:v>0.451</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>0.557</c:v>
+                  <c:v>0.455</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>0.544</c:v>
+                  <c:v>0.441</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>0.528</c:v>
+                  <c:v>0.43</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>0.525</c:v>
+                  <c:v>0.425</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>0.514</c:v>
+                  <c:v>0.415</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>0.498</c:v>
+                  <c:v>0.417</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>0.497</c:v>
+                  <c:v>0.396</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>0.481</c:v>
+                  <c:v>0.393</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>0.48</c:v>
+                  <c:v>0.384</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>0.462</c:v>
+                  <c:v>0.38</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>0.46</c:v>
+                  <c:v>0.384</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>0.452</c:v>
+                  <c:v>0.368</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>0.445</c:v>
+                  <c:v>0.371</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>0.436</c:v>
+                  <c:v>0.355</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>0.432</c:v>
+                  <c:v>0.346</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>0.419</c:v>
+                  <c:v>0.341</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>0.413</c:v>
+                  <c:v>0.342</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>0.405</c:v>
+                  <c:v>0.337</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>0.394</c:v>
+                  <c:v>0.268</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>0.398</c:v>
+                  <c:v>0.222</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>0.392</c:v>
+                  <c:v>0.212</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>0.39</c:v>
+                  <c:v>0.195</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>0.385</c:v>
+                  <c:v>0.192</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>0.377</c:v>
+                  <c:v>0.186</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>0.378</c:v>
+                  <c:v>0.179</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>0.368</c:v>
+                  <c:v>0.185</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>0.37</c:v>
+                  <c:v>0.173</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>0.371</c:v>
+                  <c:v>0.175</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>0.361</c:v>
+                  <c:v>0.169</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>0.362</c:v>
+                  <c:v>0.169</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>0.355</c:v>
+                  <c:v>0.161</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>0.352</c:v>
+                  <c:v>0.165</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>0.348</c:v>
+                  <c:v>0.155</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>0.352</c:v>
+                  <c:v>0.159</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>0.277</c:v>
+                  <c:v>0.162</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>0.246</c:v>
+                  <c:v>0.156</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>0.23</c:v>
+                  <c:v>0.152</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>0.222</c:v>
+                  <c:v>0.149</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>0.218</c:v>
+                  <c:v>0.15</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>0.21</c:v>
+                  <c:v>0.144</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>0.201</c:v>
+                  <c:v>0.145</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>0.203</c:v>
+                  <c:v>0.14</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>0.197</c:v>
+                  <c:v>0.146</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>0.197</c:v>
+                  <c:v>0.14</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>0.192</c:v>
+                  <c:v>0.142</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>0.19</c:v>
+                  <c:v>0.14</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>0.187</c:v>
+                  <c:v>0.138</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>0.185</c:v>
+                  <c:v>0.137</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>0.184</c:v>
+                  <c:v>0.134</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>0.182</c:v>
+                  <c:v>0.137</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>0.182</c:v>
+                  <c:v>0.133</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>0.18</c:v>
+                  <c:v>0.139</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>0.173</c:v>
+                  <c:v>0.132</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>0.172</c:v>
+                  <c:v>0.133</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>0.171</c:v>
+                  <c:v>0.129</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>0.168</c:v>
+                  <c:v>0.134</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>0.172</c:v>
+                  <c:v>0.132</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>0.167</c:v>
+                  <c:v>0.113</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>0.169</c:v>
+                  <c:v>0.102</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>0.165</c:v>
+                  <c:v>0.097</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>0.168</c:v>
+                  <c:v>0.095</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>0.163</c:v>
+                  <c:v>0.098</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>0.163</c:v>
+                  <c:v>0.092</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>0.16</c:v>
+                  <c:v>0.089</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>0.162</c:v>
+                  <c:v>0.091</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>0.16</c:v>
+                  <c:v>0.087</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>0.16</c:v>
+                  <c:v>0.091</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>0.162</c:v>
+                  <c:v>0.089</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>0.161</c:v>
+                  <c:v>0.086</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>0.154</c:v>
+                  <c:v>0.088</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>0.157</c:v>
-                </c:pt>
-                <c:pt idx="93">
-                  <c:v>0.159</c:v>
+                  <c:v>0.082</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1301,7 +1281,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>KL Loss (\eta=0.1)</c:v>
+                  <c:v>KL Loss (\eta=1)</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1325,286 +1305,349 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="115"/>
                 <c:pt idx="0">
-                  <c:v>0.208</c:v>
+                  <c:v>0.1004</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.242</c:v>
+                  <c:v>0.16</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.2378</c:v>
+                  <c:v>0.165</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.2332</c:v>
+                  <c:v>0.1688</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.2251</c:v>
+                  <c:v>0.1671</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.2171</c:v>
+                  <c:v>0.167</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.2094</c:v>
+                  <c:v>0.1666</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.2022</c:v>
+                  <c:v>0.1653</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.1938</c:v>
+                  <c:v>0.1644</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.1867</c:v>
+                  <c:v>0.1652</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.1786</c:v>
+                  <c:v>0.1598</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.1738</c:v>
+                  <c:v>0.1513</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.1676</c:v>
+                  <c:v>0.1482</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.1638</c:v>
+                  <c:v>0.1437</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.1613</c:v>
+                  <c:v>0.1397</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.158</c:v>
+                  <c:v>0.1337</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.1526</c:v>
+                  <c:v>0.1273</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.1499</c:v>
+                  <c:v>0.1239</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.1387</c:v>
+                  <c:v>0.1205</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0.1365</c:v>
+                  <c:v>0.1181</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0.1321</c:v>
+                  <c:v>0.1164</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>0.1312</c:v>
+                  <c:v>0.1159</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>0.1278</c:v>
+                  <c:v>0.1148</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>0.1251</c:v>
+                  <c:v>0.1112</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>0.1219</c:v>
+                  <c:v>0.1104</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>0.121</c:v>
+                  <c:v>0.1088</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>0.1185</c:v>
+                  <c:v>0.106</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>0.1146</c:v>
+                  <c:v>0.1045</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>0.1142</c:v>
+                  <c:v>0.1037</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>0.112</c:v>
+                  <c:v>0.1028</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>0.1112</c:v>
+                  <c:v>0.1014</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>0.1057</c:v>
+                  <c:v>0.099</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>0.1056</c:v>
+                  <c:v>0.0978</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>0.1047</c:v>
+                  <c:v>0.0985</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>0.1026</c:v>
+                  <c:v>0.097</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>0.0997</c:v>
+                  <c:v>0.0952</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>0.0993</c:v>
+                  <c:v>0.093</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>0.0955</c:v>
+                  <c:v>0.092</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>0.0927</c:v>
+                  <c:v>0.0747</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>0.0926</c:v>
+                  <c:v>0.0676</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>0.0898</c:v>
+                  <c:v>0.0643</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>0.0898</c:v>
+                  <c:v>0.0621</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>0.0878</c:v>
+                  <c:v>0.0609</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>0.0885</c:v>
+                  <c:v>0.0605</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>0.0865</c:v>
+                  <c:v>0.0552</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>0.0843</c:v>
+                  <c:v>0.0573</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>0.0855</c:v>
+                  <c:v>0.0552</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>0.0828</c:v>
+                  <c:v>0.0543</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>0.0818</c:v>
+                  <c:v>0.0535</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>0.0822</c:v>
+                  <c:v>0.0539</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>0.0811</c:v>
+                  <c:v>0.0547</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>0.0798</c:v>
+                  <c:v>0.0538</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>0.0794</c:v>
+                  <c:v>0.0522</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>0.078</c:v>
+                  <c:v>0.0523</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>0.0776</c:v>
+                  <c:v>0.0511</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>0.0768</c:v>
+                  <c:v>0.0498</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>0.0573</c:v>
+                  <c:v>0.0518</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>0.0514</c:v>
+                  <c:v>0.0491</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>0.0483</c:v>
+                  <c:v>0.0496</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>0.0468</c:v>
+                  <c:v>0.048</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>0.0459</c:v>
+                  <c:v>0.0486</c:v>
                 </c:pt>
                 <c:pt idx="61">
+                  <c:v>0.0481</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>0.0455</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>0.0469</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>0.0463</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>0.0448</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>0.0456</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>0.0457</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>0.0439</c:v>
+                </c:pt>
+                <c:pt idx="69">
                   <c:v>0.0454</c:v>
                 </c:pt>
-                <c:pt idx="62">
-                  <c:v>0.043</c:v>
-                </c:pt>
-                <c:pt idx="63">
-                  <c:v>0.045</c:v>
-                </c:pt>
-                <c:pt idx="64">
-                  <c:v>0.0426</c:v>
-                </c:pt>
-                <c:pt idx="65">
+                <c:pt idx="70">
+                  <c:v>0.0447</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>0.0442</c:v>
+                </c:pt>
+                <c:pt idx="72">
                   <c:v>0.0433</c:v>
                 </c:pt>
-                <c:pt idx="66">
-                  <c:v>0.0419</c:v>
-                </c:pt>
-                <c:pt idx="67">
+                <c:pt idx="73">
+                  <c:v>0.044</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>0.0424</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>0.0428</c:v>
+                </c:pt>
+                <c:pt idx="76">
                   <c:v>0.0421</c:v>
                 </c:pt>
-                <c:pt idx="68">
-                  <c:v>0.0413</c:v>
-                </c:pt>
-                <c:pt idx="69">
-                  <c:v>0.0414</c:v>
-                </c:pt>
-                <c:pt idx="70">
-                  <c:v>0.0405</c:v>
-                </c:pt>
-                <c:pt idx="71">
-                  <c:v>0.0412</c:v>
-                </c:pt>
-                <c:pt idx="72">
-                  <c:v>0.0404</c:v>
-                </c:pt>
-                <c:pt idx="73">
-                  <c:v>0.0403</c:v>
-                </c:pt>
-                <c:pt idx="74">
-                  <c:v>0.0385</c:v>
-                </c:pt>
-                <c:pt idx="75">
-                  <c:v>0.0383</c:v>
-                </c:pt>
-                <c:pt idx="76">
-                  <c:v>0.0377</c:v>
-                </c:pt>
                 <c:pt idx="77">
-                  <c:v>0.0379</c:v>
+                  <c:v>0.0437</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>0.038</c:v>
+                  <c:v>0.0371</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>0.0374</c:v>
+                  <c:v>0.0313</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>0.0382</c:v>
+                  <c:v>0.0316</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>0.0368</c:v>
+                  <c:v>0.0318</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>0.0372</c:v>
+                  <c:v>0.0324</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>0.0366</c:v>
+                  <c:v>0.0311</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>0.0364</c:v>
+                  <c:v>0.0318</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>0.0355</c:v>
+                  <c:v>0.0308</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>0.0364</c:v>
+                  <c:v>0.0298</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>0.0361</c:v>
+                  <c:v>0.0311</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>0.0355</c:v>
+                  <c:v>0.0287</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>0.0357</c:v>
+                  <c:v>0.0295</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>0.0359</c:v>
+                  <c:v>0.0294</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>0.0345</c:v>
+                  <c:v>0.0286</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>0.0353</c:v>
+                  <c:v>0.0282</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>0.0354</c:v>
+                  <c:v>0.0284</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>0.0289</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>0.0271</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>0.0284</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>0.0287</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>0.027</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>0.0273</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>0.028</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>0.0281</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>0.0281</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>0.0271</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>0.0259</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>0.0264</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>0.026</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>0.0269</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>0.0264</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>0.0265</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>0.0269</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>0.0247</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>0.0251</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>0.0252</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>0.0252</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1620,7 +1663,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Classification Loss (\eta=0.01)</c:v>
+                  <c:v>KL Loss (\eta=0.1)</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1644,283 +1687,286 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="115"/>
                 <c:pt idx="0">
-                  <c:v>1.965</c:v>
+                  <c:v>0.208</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.581</c:v>
+                  <c:v>0.242</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.289</c:v>
+                  <c:v>0.2378</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.121</c:v>
+                  <c:v>0.2332</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.985</c:v>
+                  <c:v>0.2251</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.9</c:v>
+                  <c:v>0.2171</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.835</c:v>
+                  <c:v>0.2094</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.776</c:v>
+                  <c:v>0.2022</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.738</c:v>
+                  <c:v>0.1938</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.701</c:v>
+                  <c:v>0.1867</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.665</c:v>
+                  <c:v>0.1786</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.631</c:v>
+                  <c:v>0.1738</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.607</c:v>
+                  <c:v>0.1676</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.588</c:v>
+                  <c:v>0.1638</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.561</c:v>
+                  <c:v>0.1613</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.536</c:v>
+                  <c:v>0.158</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.535</c:v>
+                  <c:v>0.1526</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.52</c:v>
+                  <c:v>0.1499</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.497</c:v>
+                  <c:v>0.1387</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0.487</c:v>
+                  <c:v>0.1365</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0.463</c:v>
+                  <c:v>0.1321</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>0.451</c:v>
+                  <c:v>0.1312</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>0.455</c:v>
+                  <c:v>0.1278</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>0.441</c:v>
+                  <c:v>0.1251</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>0.43</c:v>
+                  <c:v>0.1219</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>0.425</c:v>
+                  <c:v>0.121</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>0.415</c:v>
+                  <c:v>0.1185</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>0.417</c:v>
+                  <c:v>0.1146</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>0.396</c:v>
+                  <c:v>0.1142</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>0.393</c:v>
+                  <c:v>0.112</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>0.384</c:v>
+                  <c:v>0.1112</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>0.38</c:v>
+                  <c:v>0.1057</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>0.384</c:v>
+                  <c:v>0.1056</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>0.368</c:v>
+                  <c:v>0.1047</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>0.371</c:v>
+                  <c:v>0.1026</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>0.355</c:v>
+                  <c:v>0.0997</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>0.346</c:v>
+                  <c:v>0.0993</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>0.341</c:v>
+                  <c:v>0.0955</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>0.342</c:v>
+                  <c:v>0.0927</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>0.337</c:v>
+                  <c:v>0.0926</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>0.268</c:v>
+                  <c:v>0.0898</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>0.222</c:v>
+                  <c:v>0.0898</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>0.212</c:v>
+                  <c:v>0.0878</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>0.195</c:v>
+                  <c:v>0.0885</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>0.192</c:v>
+                  <c:v>0.0865</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>0.186</c:v>
+                  <c:v>0.0843</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>0.179</c:v>
+                  <c:v>0.0855</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>0.185</c:v>
+                  <c:v>0.0828</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>0.173</c:v>
+                  <c:v>0.0818</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>0.175</c:v>
+                  <c:v>0.0822</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>0.169</c:v>
+                  <c:v>0.0811</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>0.169</c:v>
+                  <c:v>0.0798</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>0.161</c:v>
+                  <c:v>0.0794</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>0.165</c:v>
+                  <c:v>0.078</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>0.155</c:v>
+                  <c:v>0.0776</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>0.159</c:v>
+                  <c:v>0.0768</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>0.162</c:v>
+                  <c:v>0.0573</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>0.156</c:v>
+                  <c:v>0.0514</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>0.152</c:v>
+                  <c:v>0.0483</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>0.149</c:v>
+                  <c:v>0.0468</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>0.15</c:v>
+                  <c:v>0.0459</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>0.144</c:v>
+                  <c:v>0.0454</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>0.145</c:v>
+                  <c:v>0.043</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>0.14</c:v>
+                  <c:v>0.045</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>0.146</c:v>
+                  <c:v>0.0426</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>0.14</c:v>
+                  <c:v>0.0433</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>0.142</c:v>
+                  <c:v>0.0419</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>0.14</c:v>
+                  <c:v>0.0421</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>0.138</c:v>
+                  <c:v>0.0413</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>0.137</c:v>
+                  <c:v>0.0414</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>0.134</c:v>
+                  <c:v>0.0405</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>0.137</c:v>
+                  <c:v>0.0412</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>0.133</c:v>
+                  <c:v>0.0404</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>0.139</c:v>
+                  <c:v>0.0403</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>0.132</c:v>
+                  <c:v>0.0385</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>0.133</c:v>
+                  <c:v>0.0383</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>0.129</c:v>
+                  <c:v>0.0377</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>0.134</c:v>
+                  <c:v>0.0379</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>0.132</c:v>
+                  <c:v>0.038</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>0.113</c:v>
+                  <c:v>0.0374</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>0.102</c:v>
+                  <c:v>0.0382</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>0.097</c:v>
+                  <c:v>0.0368</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>0.095</c:v>
+                  <c:v>0.0372</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>0.098</c:v>
+                  <c:v>0.0366</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>0.092</c:v>
+                  <c:v>0.0364</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>0.089</c:v>
+                  <c:v>0.0355</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>0.091</c:v>
+                  <c:v>0.0364</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>0.087</c:v>
+                  <c:v>0.0361</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>0.091</c:v>
+                  <c:v>0.0355</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>0.089</c:v>
+                  <c:v>0.0357</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>0.086</c:v>
+                  <c:v>0.0359</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>0.088</c:v>
+                  <c:v>0.0345</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>0.082</c:v>
+                  <c:v>0.0353</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>0.0354</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2252,11 +2298,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="-516301696"/>
-        <c:axId val="-516299376"/>
+        <c:axId val="-2110073040"/>
+        <c:axId val="2127903024"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-516301696"/>
+        <c:axId val="-2110073040"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2283,7 +2329,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -2298,7 +2344,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-516299376"/>
+        <c:crossAx val="2127903024"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2306,7 +2352,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-516299376"/>
+        <c:axId val="2127903024"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2326,6 +2372,7 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -2341,7 +2388,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -2356,7 +2403,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-516301696"/>
+        <c:crossAx val="-2110073040"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2374,10 +2421,10 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.0189862204724409"/>
-          <c:y val="0.817635084346851"/>
-          <c:w val="0.981013779527559"/>
-          <c:h val="0.157325792022476"/>
+          <c:x val="0.0"/>
+          <c:y val="0.795606069314328"/>
+          <c:w val="1.0"/>
+          <c:h val="0.189795390539686"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="0"/>
@@ -2394,6 +2441,1122 @@
         <a:p>
           <a:pPr>
             <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>FPR for</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> different calibration functions</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet2!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>FPR for temperature-scaling</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet2!$A$2:$A$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>50.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>100.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>500.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1000.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet2!$B$2:$B$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>34.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>32.3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>30.9</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>28.9</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>28.9</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>28.9</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>28.8</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet2!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>FPR for log-scaling</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet2!$A$2:$A$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>50.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>100.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>500.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1000.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet2!$C$2:$C$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>12.7</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>12.4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>12.3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>12.2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>12.2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>12.2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>12.2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="-2054732240"/>
+        <c:axId val="-2074231216"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="-2054732240"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>T</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-2074231216"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="-2074231216"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>FPR</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-2054732240"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>FPR</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> for different input perturbation magnitude</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet3!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>FPR for temperature-scaling (T=100)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet3!$A$2:$A$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.005</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.01</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.05</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet3!$B$2:$B$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>28.7</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>26.3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>19.2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>19.1</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>69.5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>96.2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet3!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>FPR for log-scaling (T=1)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet3!$A$2:$A$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.005</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.01</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.05</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet3!$C$2:$C$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>14.4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>13.4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10.9</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>9.1</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>28.3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>83.9</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="-2083309392"/>
+        <c:axId val="-2075294016"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="-2083309392"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>epsilon</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-2075294016"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="-2075294016"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>FPR</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-2083309392"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1">
                   <a:lumMod val="65000"/>
@@ -2486,6 +3649,86 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
   <cs:axisTitle>
@@ -3002,20 +4245,1122 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>508000</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>203200</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>584200</xdr:colOff>
-      <xdr:row>39</xdr:row>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>27</xdr:row>
       <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>44450</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>44450</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>50800</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Chart 4"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1517650</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>63500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>323850</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>165100</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -3302,17 +5647,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F116"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="T37" sqref="T37"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="N11" sqref="N11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="26.1640625" customWidth="1"/>
-    <col min="2" max="2" width="16.1640625" customWidth="1"/>
-    <col min="3" max="3" width="23.33203125" customWidth="1"/>
-    <col min="4" max="4" width="16" customWidth="1"/>
-    <col min="5" max="5" width="24.5" customWidth="1"/>
+    <col min="2" max="2" width="23.33203125" customWidth="1"/>
+    <col min="3" max="3" width="24.5" customWidth="1"/>
+    <col min="4" max="4" width="16.1640625" customWidth="1"/>
+    <col min="5" max="5" width="16" customWidth="1"/>
     <col min="6" max="6" width="17.1640625" customWidth="1"/>
   </cols>
   <sheetData>
@@ -3321,16 +5666,16 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
         <v>3</v>
       </c>
-      <c r="C1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>4</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>2</v>
       </c>
       <c r="F1" t="s">
         <v>5</v>
@@ -3341,16 +5686,16 @@
         <v>1.976</v>
       </c>
       <c r="B2">
+        <v>2.0990000000000002</v>
+      </c>
+      <c r="C2">
+        <v>1.9650000000000001</v>
+      </c>
+      <c r="D2">
         <v>0.1004</v>
       </c>
-      <c r="C2">
-        <v>2.0990000000000002</v>
-      </c>
-      <c r="D2">
+      <c r="E2">
         <v>0.20799999999999999</v>
-      </c>
-      <c r="E2">
-        <v>1.9650000000000001</v>
       </c>
       <c r="F2">
         <v>9.9699999999999997E-2</v>
@@ -3361,16 +5706,16 @@
         <v>1.597</v>
       </c>
       <c r="B3">
+        <v>1.6739999999999999</v>
+      </c>
+      <c r="C3">
+        <v>1.581</v>
+      </c>
+      <c r="D3">
         <v>0.16</v>
       </c>
-      <c r="C3">
-        <v>1.6739999999999999</v>
-      </c>
-      <c r="D3">
+      <c r="E3">
         <v>0.24199999999999999</v>
-      </c>
-      <c r="E3">
-        <v>1.581</v>
       </c>
       <c r="F3">
         <v>0.1143</v>
@@ -3381,16 +5726,16 @@
         <v>1.361</v>
       </c>
       <c r="B4">
+        <v>1.466</v>
+      </c>
+      <c r="C4">
+        <v>1.2889999999999999</v>
+      </c>
+      <c r="D4">
         <v>0.16500000000000001</v>
       </c>
-      <c r="C4">
-        <v>1.466</v>
-      </c>
-      <c r="D4">
+      <c r="E4">
         <v>0.23780000000000001</v>
-      </c>
-      <c r="E4">
-        <v>1.2889999999999999</v>
       </c>
       <c r="F4">
         <v>0.1076</v>
@@ -3401,16 +5746,16 @@
         <v>1.2290000000000001</v>
       </c>
       <c r="B5">
+        <v>1.3280000000000001</v>
+      </c>
+      <c r="C5">
+        <v>1.121</v>
+      </c>
+      <c r="D5">
         <v>0.16880000000000001</v>
       </c>
-      <c r="C5">
-        <v>1.3280000000000001</v>
-      </c>
-      <c r="D5">
+      <c r="E5">
         <v>0.23319999999999999</v>
-      </c>
-      <c r="E5">
-        <v>1.121</v>
       </c>
       <c r="F5">
         <v>9.64E-2</v>
@@ -3421,16 +5766,16 @@
         <v>1.111</v>
       </c>
       <c r="B6">
+        <v>1.2190000000000001</v>
+      </c>
+      <c r="C6">
+        <v>0.98499999999999999</v>
+      </c>
+      <c r="D6">
         <v>0.1671</v>
       </c>
-      <c r="C6">
-        <v>1.2190000000000001</v>
-      </c>
-      <c r="D6">
+      <c r="E6">
         <v>0.22509999999999999</v>
-      </c>
-      <c r="E6">
-        <v>0.98499999999999999</v>
       </c>
       <c r="F6">
         <v>8.7099999999999997E-2</v>
@@ -3441,16 +5786,16 @@
         <v>1.044</v>
       </c>
       <c r="B7">
+        <v>1.131</v>
+      </c>
+      <c r="C7">
+        <v>0.9</v>
+      </c>
+      <c r="D7">
         <v>0.16700000000000001</v>
       </c>
-      <c r="C7">
-        <v>1.131</v>
-      </c>
-      <c r="D7">
+      <c r="E7">
         <v>0.21709999999999999</v>
-      </c>
-      <c r="E7">
-        <v>0.9</v>
       </c>
       <c r="F7">
         <v>8.2299999999999998E-2</v>
@@ -3461,16 +5806,16 @@
         <v>0.995</v>
       </c>
       <c r="B8">
+        <v>1.048</v>
+      </c>
+      <c r="C8">
+        <v>0.83499999999999996</v>
+      </c>
+      <c r="D8">
         <v>0.1666</v>
       </c>
-      <c r="C8">
-        <v>1.048</v>
-      </c>
-      <c r="D8">
+      <c r="E8">
         <v>0.2094</v>
-      </c>
-      <c r="E8">
-        <v>0.83499999999999996</v>
       </c>
       <c r="F8">
         <v>7.6799999999999993E-2</v>
@@ -3481,16 +5826,16 @@
         <v>0.93899999999999995</v>
       </c>
       <c r="B9">
+        <v>0.98</v>
+      </c>
+      <c r="C9">
+        <v>0.77600000000000002</v>
+      </c>
+      <c r="D9">
         <v>0.1653</v>
       </c>
-      <c r="C9">
-        <v>0.98</v>
-      </c>
-      <c r="D9">
+      <c r="E9">
         <v>0.20219999999999999</v>
-      </c>
-      <c r="E9">
-        <v>0.77600000000000002</v>
       </c>
       <c r="F9">
         <v>7.2700000000000001E-2</v>
@@ -3501,16 +5846,16 @@
         <v>0.90500000000000003</v>
       </c>
       <c r="B10">
+        <v>0.91700000000000004</v>
+      </c>
+      <c r="C10">
+        <v>0.73799999999999999</v>
+      </c>
+      <c r="D10">
         <v>0.16439999999999999</v>
       </c>
-      <c r="C10">
-        <v>0.91700000000000004</v>
-      </c>
-      <c r="D10">
+      <c r="E10">
         <v>0.1938</v>
-      </c>
-      <c r="E10">
-        <v>0.73799999999999999</v>
       </c>
       <c r="F10">
         <v>6.9800000000000001E-2</v>
@@ -3521,16 +5866,16 @@
         <v>0.86899999999999999</v>
       </c>
       <c r="B11">
+        <v>0.872</v>
+      </c>
+      <c r="C11">
+        <v>0.70099999999999996</v>
+      </c>
+      <c r="D11">
         <v>0.16520000000000001</v>
       </c>
-      <c r="C11">
-        <v>0.872</v>
-      </c>
-      <c r="D11">
+      <c r="E11">
         <v>0.1867</v>
-      </c>
-      <c r="E11">
-        <v>0.70099999999999996</v>
       </c>
       <c r="F11">
         <v>6.7299999999999999E-2</v>
@@ -3541,16 +5886,16 @@
         <v>0.83399999999999996</v>
       </c>
       <c r="B12">
+        <v>0.83499999999999996</v>
+      </c>
+      <c r="C12">
+        <v>0.66500000000000004</v>
+      </c>
+      <c r="D12">
         <v>0.1598</v>
       </c>
-      <c r="C12">
-        <v>0.83499999999999996</v>
-      </c>
-      <c r="D12">
+      <c r="E12">
         <v>0.17860000000000001</v>
-      </c>
-      <c r="E12">
-        <v>0.66500000000000004</v>
       </c>
       <c r="F12">
         <v>6.4500000000000002E-2</v>
@@ -3561,16 +5906,16 @@
         <v>0.80400000000000005</v>
       </c>
       <c r="B13">
+        <v>0.79300000000000004</v>
+      </c>
+      <c r="C13">
+        <v>0.63100000000000001</v>
+      </c>
+      <c r="D13">
         <v>0.15129999999999999</v>
       </c>
-      <c r="C13">
-        <v>0.79300000000000004</v>
-      </c>
-      <c r="D13">
+      <c r="E13">
         <v>0.17380000000000001</v>
-      </c>
-      <c r="E13">
-        <v>0.63100000000000001</v>
       </c>
       <c r="F13">
         <v>6.2199999999999998E-2</v>
@@ -3581,16 +5926,16 @@
         <v>0.77500000000000002</v>
       </c>
       <c r="B14">
+        <v>0.76400000000000001</v>
+      </c>
+      <c r="C14">
+        <v>0.60699999999999998</v>
+      </c>
+      <c r="D14">
         <v>0.1482</v>
       </c>
-      <c r="C14">
-        <v>0.76400000000000001</v>
-      </c>
-      <c r="D14">
+      <c r="E14">
         <v>0.1676</v>
-      </c>
-      <c r="E14">
-        <v>0.60699999999999998</v>
       </c>
       <c r="F14">
         <v>0.06</v>
@@ -3601,16 +5946,16 @@
         <v>0.746</v>
       </c>
       <c r="B15">
+        <v>0.73699999999999999</v>
+      </c>
+      <c r="C15">
+        <v>0.58799999999999997</v>
+      </c>
+      <c r="D15">
         <v>0.14369999999999999</v>
       </c>
-      <c r="C15">
-        <v>0.73699999999999999</v>
-      </c>
-      <c r="D15">
+      <c r="E15">
         <v>0.1638</v>
-      </c>
-      <c r="E15">
-        <v>0.58799999999999997</v>
       </c>
       <c r="F15">
         <v>5.8999999999999997E-2</v>
@@ -3621,16 +5966,16 @@
         <v>0.72</v>
       </c>
       <c r="B16">
+        <v>0.71299999999999997</v>
+      </c>
+      <c r="C16">
+        <v>0.56100000000000005</v>
+      </c>
+      <c r="D16">
         <v>0.13969999999999999</v>
       </c>
-      <c r="C16">
-        <v>0.71299999999999997</v>
-      </c>
-      <c r="D16">
+      <c r="E16">
         <v>0.1613</v>
-      </c>
-      <c r="E16">
-        <v>0.56100000000000005</v>
       </c>
       <c r="F16">
         <v>5.7799999999999997E-2</v>
@@ -3641,16 +5986,16 @@
         <v>0.68700000000000006</v>
       </c>
       <c r="B17">
+        <v>0.71099999999999997</v>
+      </c>
+      <c r="C17">
+        <v>0.53600000000000003</v>
+      </c>
+      <c r="D17">
         <v>0.13370000000000001</v>
       </c>
-      <c r="C17">
-        <v>0.71099999999999997</v>
-      </c>
-      <c r="D17">
+      <c r="E17">
         <v>0.158</v>
-      </c>
-      <c r="E17">
-        <v>0.53600000000000003</v>
       </c>
       <c r="F17">
         <v>5.5300000000000002E-2</v>
@@ -3661,16 +6006,16 @@
         <v>0.64900000000000002</v>
       </c>
       <c r="B18">
+        <v>0.68300000000000005</v>
+      </c>
+      <c r="C18">
+        <v>0.53500000000000003</v>
+      </c>
+      <c r="D18">
         <v>0.1273</v>
       </c>
-      <c r="C18">
-        <v>0.68300000000000005</v>
-      </c>
-      <c r="D18">
+      <c r="E18">
         <v>0.15260000000000001</v>
-      </c>
-      <c r="E18">
-        <v>0.53500000000000003</v>
       </c>
       <c r="F18">
         <v>5.3900000000000003E-2</v>
@@ -3681,16 +6026,16 @@
         <v>0.61799999999999999</v>
       </c>
       <c r="B19">
+        <v>0.66300000000000003</v>
+      </c>
+      <c r="C19">
+        <v>0.52</v>
+      </c>
+      <c r="D19">
         <v>0.1239</v>
       </c>
-      <c r="C19">
-        <v>0.66300000000000003</v>
-      </c>
-      <c r="D19">
+      <c r="E19">
         <v>0.14990000000000001</v>
-      </c>
-      <c r="E19">
-        <v>0.52</v>
       </c>
       <c r="F19">
         <v>5.2600000000000001E-2</v>
@@ -3701,16 +6046,16 @@
         <v>0.60899999999999999</v>
       </c>
       <c r="B20">
+        <v>0.60899999999999999</v>
+      </c>
+      <c r="C20">
+        <v>0.497</v>
+      </c>
+      <c r="D20">
         <v>0.1205</v>
       </c>
-      <c r="C20">
-        <v>0.60899999999999999</v>
-      </c>
-      <c r="D20">
+      <c r="E20">
         <v>0.13869999999999999</v>
-      </c>
-      <c r="E20">
-        <v>0.497</v>
       </c>
       <c r="F20">
         <v>5.1499999999999997E-2</v>
@@ -3721,16 +6066,16 @@
         <v>0.58499999999999996</v>
       </c>
       <c r="B21">
+        <v>0.60099999999999998</v>
+      </c>
+      <c r="C21">
+        <v>0.48699999999999999</v>
+      </c>
+      <c r="D21">
         <v>0.1181</v>
       </c>
-      <c r="C21">
-        <v>0.60099999999999998</v>
-      </c>
-      <c r="D21">
+      <c r="E21">
         <v>0.13650000000000001</v>
-      </c>
-      <c r="E21">
-        <v>0.48699999999999999</v>
       </c>
       <c r="F21">
         <v>5.04E-2</v>
@@ -3741,16 +6086,16 @@
         <v>0.57999999999999996</v>
       </c>
       <c r="B22">
+        <v>0.58299999999999996</v>
+      </c>
+      <c r="C22">
+        <v>0.46300000000000002</v>
+      </c>
+      <c r="D22">
         <v>0.1164</v>
       </c>
-      <c r="C22">
-        <v>0.58299999999999996</v>
-      </c>
-      <c r="D22">
+      <c r="E22">
         <v>0.1321</v>
-      </c>
-      <c r="E22">
-        <v>0.46300000000000002</v>
       </c>
       <c r="F22">
         <v>4.8800000000000003E-2</v>
@@ -3761,16 +6106,16 @@
         <v>0.56899999999999995</v>
       </c>
       <c r="B23">
+        <v>0.57199999999999995</v>
+      </c>
+      <c r="C23">
+        <v>0.45100000000000001</v>
+      </c>
+      <c r="D23">
         <v>0.1159</v>
       </c>
-      <c r="C23">
-        <v>0.57199999999999995</v>
-      </c>
-      <c r="D23">
+      <c r="E23">
         <v>0.13120000000000001</v>
-      </c>
-      <c r="E23">
-        <v>0.45100000000000001</v>
       </c>
       <c r="F23">
         <v>4.7699999999999999E-2</v>
@@ -3781,16 +6126,16 @@
         <v>0.56200000000000006</v>
       </c>
       <c r="B24">
+        <v>0.55700000000000005</v>
+      </c>
+      <c r="C24">
+        <v>0.45500000000000002</v>
+      </c>
+      <c r="D24">
         <v>0.1148</v>
       </c>
-      <c r="C24">
-        <v>0.55700000000000005</v>
-      </c>
-      <c r="D24">
+      <c r="E24">
         <v>0.1278</v>
-      </c>
-      <c r="E24">
-        <v>0.45500000000000002</v>
       </c>
       <c r="F24">
         <v>4.6899999999999997E-2</v>
@@ -3801,16 +6146,16 @@
         <v>0.54800000000000004</v>
       </c>
       <c r="B25">
+        <v>0.54400000000000004</v>
+      </c>
+      <c r="C25">
+        <v>0.441</v>
+      </c>
+      <c r="D25">
         <v>0.11119999999999999</v>
       </c>
-      <c r="C25">
-        <v>0.54400000000000004</v>
-      </c>
-      <c r="D25">
+      <c r="E25">
         <v>0.12509999999999999</v>
-      </c>
-      <c r="E25">
-        <v>0.441</v>
       </c>
       <c r="F25">
         <v>4.6600000000000003E-2</v>
@@ -3821,16 +6166,16 @@
         <v>0.53700000000000003</v>
       </c>
       <c r="B26">
+        <v>0.52800000000000002</v>
+      </c>
+      <c r="C26">
+        <v>0.43</v>
+      </c>
+      <c r="D26">
         <v>0.1104</v>
       </c>
-      <c r="C26">
-        <v>0.52800000000000002</v>
-      </c>
-      <c r="D26">
+      <c r="E26">
         <v>0.12189999999999999</v>
-      </c>
-      <c r="E26">
-        <v>0.43</v>
       </c>
       <c r="F26">
         <v>4.5100000000000001E-2</v>
@@ -3841,16 +6186,16 @@
         <v>0.52700000000000002</v>
       </c>
       <c r="B27">
+        <v>0.52500000000000002</v>
+      </c>
+      <c r="C27">
+        <v>0.42499999999999999</v>
+      </c>
+      <c r="D27">
         <v>0.10879999999999999</v>
       </c>
-      <c r="C27">
-        <v>0.52500000000000002</v>
-      </c>
-      <c r="D27">
+      <c r="E27">
         <v>0.121</v>
-      </c>
-      <c r="E27">
-        <v>0.42499999999999999</v>
       </c>
       <c r="F27">
         <v>4.4299999999999999E-2</v>
@@ -3861,16 +6206,16 @@
         <v>0.51600000000000001</v>
       </c>
       <c r="B28">
+        <v>0.51400000000000001</v>
+      </c>
+      <c r="C28">
+        <v>0.41499999999999998</v>
+      </c>
+      <c r="D28">
         <v>0.106</v>
       </c>
-      <c r="C28">
-        <v>0.51400000000000001</v>
-      </c>
-      <c r="D28">
+      <c r="E28">
         <v>0.11849999999999999</v>
-      </c>
-      <c r="E28">
-        <v>0.41499999999999998</v>
       </c>
       <c r="F28">
         <v>4.4400000000000002E-2</v>
@@ -3881,16 +6226,16 @@
         <v>0.505</v>
       </c>
       <c r="B29">
+        <v>0.498</v>
+      </c>
+      <c r="C29">
+        <v>0.41699999999999998</v>
+      </c>
+      <c r="D29">
         <v>0.1045</v>
       </c>
-      <c r="C29">
-        <v>0.498</v>
-      </c>
-      <c r="D29">
+      <c r="E29">
         <v>0.11459999999999999</v>
-      </c>
-      <c r="E29">
-        <v>0.41699999999999998</v>
       </c>
       <c r="F29">
         <v>4.3099999999999999E-2</v>
@@ -3901,16 +6246,16 @@
         <v>0.504</v>
       </c>
       <c r="B30">
+        <v>0.497</v>
+      </c>
+      <c r="C30">
+        <v>0.39600000000000002</v>
+      </c>
+      <c r="D30">
         <v>0.1037</v>
       </c>
-      <c r="C30">
-        <v>0.497</v>
-      </c>
-      <c r="D30">
+      <c r="E30">
         <v>0.1142</v>
-      </c>
-      <c r="E30">
-        <v>0.39600000000000002</v>
       </c>
       <c r="F30">
         <v>4.2599999999999999E-2</v>
@@ -3921,16 +6266,16 @@
         <v>0.49299999999999999</v>
       </c>
       <c r="B31">
+        <v>0.48099999999999998</v>
+      </c>
+      <c r="C31">
+        <v>0.39300000000000002</v>
+      </c>
+      <c r="D31">
         <v>0.1028</v>
       </c>
-      <c r="C31">
-        <v>0.48099999999999998</v>
-      </c>
-      <c r="D31">
+      <c r="E31">
         <v>0.112</v>
-      </c>
-      <c r="E31">
-        <v>0.39300000000000002</v>
       </c>
       <c r="F31">
         <v>4.1799999999999997E-2</v>
@@ -3941,16 +6286,16 @@
         <v>0.48199999999999998</v>
       </c>
       <c r="B32">
+        <v>0.48</v>
+      </c>
+      <c r="C32">
+        <v>0.38400000000000001</v>
+      </c>
+      <c r="D32">
         <v>0.1014</v>
       </c>
-      <c r="C32">
-        <v>0.48</v>
-      </c>
-      <c r="D32">
+      <c r="E32">
         <v>0.11119999999999999</v>
-      </c>
-      <c r="E32">
-        <v>0.38400000000000001</v>
       </c>
       <c r="F32">
         <v>4.07E-2</v>
@@ -3961,16 +6306,16 @@
         <v>0.48299999999999998</v>
       </c>
       <c r="B33">
+        <v>0.46200000000000002</v>
+      </c>
+      <c r="C33">
+        <v>0.38</v>
+      </c>
+      <c r="D33">
         <v>9.9000000000000005E-2</v>
       </c>
-      <c r="C33">
-        <v>0.46200000000000002</v>
-      </c>
-      <c r="D33">
+      <c r="E33">
         <v>0.1057</v>
-      </c>
-      <c r="E33">
-        <v>0.38</v>
       </c>
       <c r="F33">
         <v>3.9800000000000002E-2</v>
@@ -3981,16 +6326,16 @@
         <v>0.46600000000000003</v>
       </c>
       <c r="B34">
+        <v>0.46</v>
+      </c>
+      <c r="C34">
+        <v>0.38400000000000001</v>
+      </c>
+      <c r="D34">
         <v>9.7799999999999998E-2</v>
       </c>
-      <c r="C34">
-        <v>0.46</v>
-      </c>
-      <c r="D34">
+      <c r="E34">
         <v>0.1056</v>
-      </c>
-      <c r="E34">
-        <v>0.38400000000000001</v>
       </c>
       <c r="F34">
         <v>4.0599999999999997E-2</v>
@@ -4001,16 +6346,16 @@
         <v>0.46700000000000003</v>
       </c>
       <c r="B35">
+        <v>0.45200000000000001</v>
+      </c>
+      <c r="C35">
+        <v>0.36799999999999999</v>
+      </c>
+      <c r="D35">
         <v>9.8500000000000004E-2</v>
       </c>
-      <c r="C35">
-        <v>0.45200000000000001</v>
-      </c>
-      <c r="D35">
+      <c r="E35">
         <v>0.1047</v>
-      </c>
-      <c r="E35">
-        <v>0.36799999999999999</v>
       </c>
       <c r="F35">
         <v>3.9600000000000003E-2</v>
@@ -4021,16 +6366,16 @@
         <v>0.46100000000000002</v>
       </c>
       <c r="B36">
+        <v>0.44500000000000001</v>
+      </c>
+      <c r="C36">
+        <v>0.371</v>
+      </c>
+      <c r="D36">
         <v>9.7000000000000003E-2</v>
       </c>
-      <c r="C36">
-        <v>0.44500000000000001</v>
-      </c>
-      <c r="D36">
+      <c r="E36">
         <v>0.1026</v>
-      </c>
-      <c r="E36">
-        <v>0.371</v>
       </c>
       <c r="F36">
         <v>3.9300000000000002E-2</v>
@@ -4041,16 +6386,16 @@
         <v>0.44400000000000001</v>
       </c>
       <c r="B37">
+        <v>0.436</v>
+      </c>
+      <c r="C37">
+        <v>0.35499999999999998</v>
+      </c>
+      <c r="D37">
         <v>9.5200000000000007E-2</v>
       </c>
-      <c r="C37">
-        <v>0.436</v>
-      </c>
-      <c r="D37">
+      <c r="E37">
         <v>9.9699999999999997E-2</v>
-      </c>
-      <c r="E37">
-        <v>0.35499999999999998</v>
       </c>
       <c r="F37">
         <v>3.7600000000000001E-2</v>
@@ -4061,16 +6406,16 @@
         <v>0.441</v>
       </c>
       <c r="B38">
+        <v>0.432</v>
+      </c>
+      <c r="C38">
+        <v>0.34599999999999997</v>
+      </c>
+      <c r="D38">
         <v>9.2999999999999999E-2</v>
       </c>
-      <c r="C38">
-        <v>0.432</v>
-      </c>
-      <c r="D38">
+      <c r="E38">
         <v>9.9299999999999999E-2</v>
-      </c>
-      <c r="E38">
-        <v>0.34599999999999997</v>
       </c>
       <c r="F38">
         <v>3.73E-2</v>
@@ -4081,16 +6426,16 @@
         <v>0.434</v>
       </c>
       <c r="B39">
+        <v>0.41899999999999998</v>
+      </c>
+      <c r="C39">
+        <v>0.34100000000000003</v>
+      </c>
+      <c r="D39">
         <v>9.1999999999999998E-2</v>
       </c>
-      <c r="C39">
-        <v>0.41899999999999998</v>
-      </c>
-      <c r="D39">
+      <c r="E39">
         <v>9.5500000000000002E-2</v>
-      </c>
-      <c r="E39">
-        <v>0.34100000000000003</v>
       </c>
       <c r="F39">
         <v>3.6799999999999999E-2</v>
@@ -4101,16 +6446,16 @@
         <v>0.34699999999999998</v>
       </c>
       <c r="B40">
+        <v>0.41299999999999998</v>
+      </c>
+      <c r="C40">
+        <v>0.34200000000000003</v>
+      </c>
+      <c r="D40">
         <v>7.4700000000000003E-2</v>
       </c>
-      <c r="C40">
-        <v>0.41299999999999998</v>
-      </c>
-      <c r="D40">
+      <c r="E40">
         <v>9.2700000000000005E-2</v>
-      </c>
-      <c r="E40">
-        <v>0.34200000000000003</v>
       </c>
       <c r="F40">
         <v>3.6499999999999998E-2</v>
@@ -4121,16 +6466,16 @@
         <v>0.29699999999999999</v>
       </c>
       <c r="B41">
+        <v>0.40500000000000003</v>
+      </c>
+      <c r="C41">
+        <v>0.33700000000000002</v>
+      </c>
+      <c r="D41">
         <v>6.7599999999999993E-2</v>
       </c>
-      <c r="C41">
-        <v>0.40500000000000003</v>
-      </c>
-      <c r="D41">
+      <c r="E41">
         <v>9.2600000000000002E-2</v>
-      </c>
-      <c r="E41">
-        <v>0.33700000000000002</v>
       </c>
       <c r="F41">
         <v>3.5999999999999997E-2</v>
@@ -4141,16 +6486,16 @@
         <v>0.28100000000000003</v>
       </c>
       <c r="B42">
+        <v>0.39400000000000002</v>
+      </c>
+      <c r="C42">
+        <v>0.26800000000000002</v>
+      </c>
+      <c r="D42">
         <v>6.4299999999999996E-2</v>
       </c>
-      <c r="C42">
-        <v>0.39400000000000002</v>
-      </c>
-      <c r="D42">
+      <c r="E42">
         <v>8.9800000000000005E-2</v>
-      </c>
-      <c r="E42">
-        <v>0.26800000000000002</v>
       </c>
       <c r="F42">
         <v>3.1600000000000003E-2</v>
@@ -4161,16 +6506,16 @@
         <v>0.26900000000000002</v>
       </c>
       <c r="B43">
+        <v>0.39800000000000002</v>
+      </c>
+      <c r="C43">
+        <v>0.222</v>
+      </c>
+      <c r="D43">
         <v>6.2100000000000002E-2</v>
       </c>
-      <c r="C43">
-        <v>0.39800000000000002</v>
-      </c>
-      <c r="D43">
+      <c r="E43">
         <v>8.9800000000000005E-2</v>
-      </c>
-      <c r="E43">
-        <v>0.222</v>
       </c>
       <c r="F43">
         <v>2.9000000000000001E-2</v>
@@ -4181,16 +6526,16 @@
         <v>0.26300000000000001</v>
       </c>
       <c r="B44">
+        <v>0.39200000000000002</v>
+      </c>
+      <c r="C44">
+        <v>0.21199999999999999</v>
+      </c>
+      <c r="D44">
         <v>6.0900000000000003E-2</v>
       </c>
-      <c r="C44">
-        <v>0.39200000000000002</v>
-      </c>
-      <c r="D44">
+      <c r="E44">
         <v>8.7800000000000003E-2</v>
-      </c>
-      <c r="E44">
-        <v>0.21199999999999999</v>
       </c>
       <c r="F44">
         <v>2.7900000000000001E-2</v>
@@ -4201,16 +6546,16 @@
         <v>0.255</v>
       </c>
       <c r="B45">
+        <v>0.39</v>
+      </c>
+      <c r="C45">
+        <v>0.19500000000000001</v>
+      </c>
+      <c r="D45">
         <v>6.0499999999999998E-2</v>
       </c>
-      <c r="C45">
-        <v>0.39</v>
-      </c>
-      <c r="D45">
+      <c r="E45">
         <v>8.8499999999999995E-2</v>
-      </c>
-      <c r="E45">
-        <v>0.19500000000000001</v>
       </c>
       <c r="F45">
         <v>2.6700000000000002E-2</v>
@@ -4221,16 +6566,16 @@
         <v>0.246</v>
       </c>
       <c r="B46">
+        <v>0.38500000000000001</v>
+      </c>
+      <c r="C46">
+        <v>0.192</v>
+      </c>
+      <c r="D46">
         <v>5.5199999999999999E-2</v>
       </c>
-      <c r="C46">
-        <v>0.38500000000000001</v>
-      </c>
-      <c r="D46">
+      <c r="E46">
         <v>8.6499999999999994E-2</v>
-      </c>
-      <c r="E46">
-        <v>0.192</v>
       </c>
       <c r="F46">
         <v>2.6100000000000002E-2</v>
@@ -4241,16 +6586,16 @@
         <v>0.24399999999999999</v>
       </c>
       <c r="B47">
+        <v>0.377</v>
+      </c>
+      <c r="C47">
+        <v>0.186</v>
+      </c>
+      <c r="D47">
         <v>5.7299999999999997E-2</v>
       </c>
-      <c r="C47">
-        <v>0.377</v>
-      </c>
-      <c r="D47">
+      <c r="E47">
         <v>8.43E-2</v>
-      </c>
-      <c r="E47">
-        <v>0.186</v>
       </c>
       <c r="F47">
         <v>2.5000000000000001E-2</v>
@@ -4261,16 +6606,16 @@
         <v>0.245</v>
       </c>
       <c r="B48">
+        <v>0.378</v>
+      </c>
+      <c r="C48">
+        <v>0.17899999999999999</v>
+      </c>
+      <c r="D48">
         <v>5.5199999999999999E-2</v>
       </c>
-      <c r="C48">
-        <v>0.378</v>
-      </c>
-      <c r="D48">
+      <c r="E48">
         <v>8.5500000000000007E-2</v>
-      </c>
-      <c r="E48">
-        <v>0.17899999999999999</v>
       </c>
       <c r="F48">
         <v>2.4899999999999999E-2</v>
@@ -4281,16 +6626,16 @@
         <v>0.23799999999999999</v>
       </c>
       <c r="B49">
+        <v>0.36799999999999999</v>
+      </c>
+      <c r="C49">
+        <v>0.185</v>
+      </c>
+      <c r="D49">
         <v>5.4300000000000001E-2</v>
       </c>
-      <c r="C49">
-        <v>0.36799999999999999</v>
-      </c>
-      <c r="D49">
+      <c r="E49">
         <v>8.2799999999999999E-2</v>
-      </c>
-      <c r="E49">
-        <v>0.185</v>
       </c>
       <c r="F49">
         <v>2.47E-2</v>
@@ -4301,16 +6646,16 @@
         <v>0.23</v>
       </c>
       <c r="B50">
+        <v>0.37</v>
+      </c>
+      <c r="C50">
+        <v>0.17299999999999999</v>
+      </c>
+      <c r="D50">
         <v>5.3499999999999999E-2</v>
       </c>
-      <c r="C50">
-        <v>0.37</v>
-      </c>
-      <c r="D50">
+      <c r="E50">
         <v>8.1799999999999998E-2</v>
-      </c>
-      <c r="E50">
-        <v>0.17299999999999999</v>
       </c>
       <c r="F50">
         <v>2.3800000000000002E-2</v>
@@ -4321,16 +6666,16 @@
         <v>0.23200000000000001</v>
       </c>
       <c r="B51">
+        <v>0.371</v>
+      </c>
+      <c r="C51">
+        <v>0.17499999999999999</v>
+      </c>
+      <c r="D51">
         <v>5.3900000000000003E-2</v>
       </c>
-      <c r="C51">
-        <v>0.371</v>
-      </c>
-      <c r="D51">
+      <c r="E51">
         <v>8.2199999999999995E-2</v>
-      </c>
-      <c r="E51">
-        <v>0.17499999999999999</v>
       </c>
       <c r="F51">
         <v>2.41E-2</v>
@@ -4341,16 +6686,16 @@
         <v>0.23300000000000001</v>
       </c>
       <c r="B52">
+        <v>0.36099999999999999</v>
+      </c>
+      <c r="C52">
+        <v>0.16900000000000001</v>
+      </c>
+      <c r="D52">
         <v>5.4699999999999999E-2</v>
       </c>
-      <c r="C52">
-        <v>0.36099999999999999</v>
-      </c>
-      <c r="D52">
+      <c r="E52">
         <v>8.1100000000000005E-2</v>
-      </c>
-      <c r="E52">
-        <v>0.16900000000000001</v>
       </c>
       <c r="F52">
         <v>2.3300000000000001E-2</v>
@@ -4361,16 +6706,16 @@
         <v>0.22900000000000001</v>
       </c>
       <c r="B53">
+        <v>0.36199999999999999</v>
+      </c>
+      <c r="C53">
+        <v>0.16900000000000001</v>
+      </c>
+      <c r="D53">
         <v>5.3800000000000001E-2</v>
       </c>
-      <c r="C53">
-        <v>0.36199999999999999</v>
-      </c>
-      <c r="D53">
+      <c r="E53">
         <v>7.9799999999999996E-2</v>
-      </c>
-      <c r="E53">
-        <v>0.16900000000000001</v>
       </c>
       <c r="F53">
         <v>2.3099999999999999E-2</v>
@@ -4381,16 +6726,16 @@
         <v>0.22500000000000001</v>
       </c>
       <c r="B54">
+        <v>0.35499999999999998</v>
+      </c>
+      <c r="C54">
+        <v>0.161</v>
+      </c>
+      <c r="D54">
         <v>5.2200000000000003E-2</v>
       </c>
-      <c r="C54">
-        <v>0.35499999999999998</v>
-      </c>
-      <c r="D54">
+      <c r="E54">
         <v>7.9399999999999998E-2</v>
-      </c>
-      <c r="E54">
-        <v>0.161</v>
       </c>
       <c r="F54">
         <v>2.2700000000000001E-2</v>
@@ -4401,16 +6746,16 @@
         <v>0.22600000000000001</v>
       </c>
       <c r="B55">
+        <v>0.35199999999999998</v>
+      </c>
+      <c r="C55">
+        <v>0.16500000000000001</v>
+      </c>
+      <c r="D55">
         <v>5.2299999999999999E-2</v>
       </c>
-      <c r="C55">
-        <v>0.35199999999999998</v>
-      </c>
-      <c r="D55">
+      <c r="E55">
         <v>7.8E-2</v>
-      </c>
-      <c r="E55">
-        <v>0.16500000000000001</v>
       </c>
       <c r="F55">
         <v>2.2599999999999999E-2</v>
@@ -4421,16 +6766,16 @@
         <v>0.219</v>
       </c>
       <c r="B56">
+        <v>0.34799999999999998</v>
+      </c>
+      <c r="C56">
+        <v>0.155</v>
+      </c>
+      <c r="D56">
         <v>5.11E-2</v>
       </c>
-      <c r="C56">
-        <v>0.34799999999999998</v>
-      </c>
-      <c r="D56">
+      <c r="E56">
         <v>7.7600000000000002E-2</v>
-      </c>
-      <c r="E56">
-        <v>0.155</v>
       </c>
       <c r="F56">
         <v>2.1999999999999999E-2</v>
@@ -4441,16 +6786,16 @@
         <v>0.214</v>
       </c>
       <c r="B57">
+        <v>0.35199999999999998</v>
+      </c>
+      <c r="C57">
+        <v>0.159</v>
+      </c>
+      <c r="D57">
         <v>4.9799999999999997E-2</v>
       </c>
-      <c r="C57">
-        <v>0.35199999999999998</v>
-      </c>
-      <c r="D57">
+      <c r="E57">
         <v>7.6799999999999993E-2</v>
-      </c>
-      <c r="E57">
-        <v>0.159</v>
       </c>
       <c r="F57">
         <v>2.1999999999999999E-2</v>
@@ -4461,16 +6806,16 @@
         <v>0.217</v>
       </c>
       <c r="B58">
+        <v>0.27700000000000002</v>
+      </c>
+      <c r="C58">
+        <v>0.16200000000000001</v>
+      </c>
+      <c r="D58">
         <v>5.1799999999999999E-2</v>
       </c>
-      <c r="C58">
-        <v>0.27700000000000002</v>
-      </c>
-      <c r="D58">
+      <c r="E58">
         <v>5.7299999999999997E-2</v>
-      </c>
-      <c r="E58">
-        <v>0.16200000000000001</v>
       </c>
       <c r="F58">
         <v>2.1600000000000001E-2</v>
@@ -4481,16 +6826,16 @@
         <v>0.215</v>
       </c>
       <c r="B59">
+        <v>0.246</v>
+      </c>
+      <c r="C59">
+        <v>0.156</v>
+      </c>
+      <c r="D59">
         <v>4.9099999999999998E-2</v>
       </c>
-      <c r="C59">
-        <v>0.246</v>
-      </c>
-      <c r="D59">
+      <c r="E59">
         <v>5.1400000000000001E-2</v>
-      </c>
-      <c r="E59">
-        <v>0.156</v>
       </c>
       <c r="F59">
         <v>2.1399999999999999E-2</v>
@@ -4501,16 +6846,16 @@
         <v>0.20699999999999999</v>
       </c>
       <c r="B60">
+        <v>0.23</v>
+      </c>
+      <c r="C60">
+        <v>0.152</v>
+      </c>
+      <c r="D60">
         <v>4.9599999999999998E-2</v>
       </c>
-      <c r="C60">
-        <v>0.23</v>
-      </c>
-      <c r="D60">
+      <c r="E60">
         <v>4.8300000000000003E-2</v>
-      </c>
-      <c r="E60">
-        <v>0.152</v>
       </c>
       <c r="F60">
         <v>2.1100000000000001E-2</v>
@@ -4521,16 +6866,16 @@
         <v>0.20300000000000001</v>
       </c>
       <c r="B61">
+        <v>0.222</v>
+      </c>
+      <c r="C61">
+        <v>0.14899999999999999</v>
+      </c>
+      <c r="D61">
         <v>4.8000000000000001E-2</v>
       </c>
-      <c r="C61">
-        <v>0.222</v>
-      </c>
-      <c r="D61">
+      <c r="E61">
         <v>4.6800000000000001E-2</v>
-      </c>
-      <c r="E61">
-        <v>0.14899999999999999</v>
       </c>
       <c r="F61">
         <v>2.07E-2</v>
@@ -4541,16 +6886,16 @@
         <v>0.20699999999999999</v>
       </c>
       <c r="B62">
+        <v>0.218</v>
+      </c>
+      <c r="C62">
+        <v>0.15</v>
+      </c>
+      <c r="D62">
         <v>4.8599999999999997E-2</v>
       </c>
-      <c r="C62">
-        <v>0.218</v>
-      </c>
-      <c r="D62">
+      <c r="E62">
         <v>4.5900000000000003E-2</v>
-      </c>
-      <c r="E62">
-        <v>0.15</v>
       </c>
       <c r="F62">
         <v>2.07E-2</v>
@@ -4561,16 +6906,16 @@
         <v>0.20200000000000001</v>
       </c>
       <c r="B63">
+        <v>0.21</v>
+      </c>
+      <c r="C63">
+        <v>0.14399999999999999</v>
+      </c>
+      <c r="D63">
         <v>4.8099999999999997E-2</v>
       </c>
-      <c r="C63">
-        <v>0.21</v>
-      </c>
-      <c r="D63">
+      <c r="E63">
         <v>4.5400000000000003E-2</v>
-      </c>
-      <c r="E63">
-        <v>0.14399999999999999</v>
       </c>
       <c r="F63">
         <v>2.0199999999999999E-2</v>
@@ -4581,16 +6926,16 @@
         <v>0.19400000000000001</v>
       </c>
       <c r="B64">
+        <v>0.20100000000000001</v>
+      </c>
+      <c r="C64">
+        <v>0.14499999999999999</v>
+      </c>
+      <c r="D64">
         <v>4.5499999999999999E-2</v>
       </c>
-      <c r="C64">
-        <v>0.20100000000000001</v>
-      </c>
-      <c r="D64">
+      <c r="E64">
         <v>4.2999999999999997E-2</v>
-      </c>
-      <c r="E64">
-        <v>0.14499999999999999</v>
       </c>
       <c r="F64">
         <v>2.01E-2</v>
@@ -4601,16 +6946,16 @@
         <v>0.193</v>
       </c>
       <c r="B65">
+        <v>0.20300000000000001</v>
+      </c>
+      <c r="C65">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="D65">
         <v>4.6899999999999997E-2</v>
       </c>
-      <c r="C65">
-        <v>0.20300000000000001</v>
-      </c>
-      <c r="D65">
+      <c r="E65">
         <v>4.4999999999999998E-2</v>
-      </c>
-      <c r="E65">
-        <v>0.14000000000000001</v>
       </c>
       <c r="F65">
         <v>1.9599999999999999E-2</v>
@@ -4621,16 +6966,16 @@
         <v>0.19400000000000001</v>
       </c>
       <c r="B66">
+        <v>0.19700000000000001</v>
+      </c>
+      <c r="C66">
+        <v>0.14599999999999999</v>
+      </c>
+      <c r="D66">
         <v>4.6300000000000001E-2</v>
       </c>
-      <c r="C66">
-        <v>0.19700000000000001</v>
-      </c>
-      <c r="D66">
+      <c r="E66">
         <v>4.2599999999999999E-2</v>
-      </c>
-      <c r="E66">
-        <v>0.14599999999999999</v>
       </c>
       <c r="F66">
         <v>1.9800000000000002E-2</v>
@@ -4641,16 +6986,16 @@
         <v>0.192</v>
       </c>
       <c r="B67">
+        <v>0.19700000000000001</v>
+      </c>
+      <c r="C67">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="D67">
         <v>4.48E-2</v>
       </c>
-      <c r="C67">
-        <v>0.19700000000000001</v>
-      </c>
-      <c r="D67">
+      <c r="E67">
         <v>4.3299999999999998E-2</v>
-      </c>
-      <c r="E67">
-        <v>0.14000000000000001</v>
       </c>
       <c r="F67">
         <v>1.9300000000000001E-2</v>
@@ -4661,16 +7006,16 @@
         <v>0.193</v>
       </c>
       <c r="B68">
+        <v>0.192</v>
+      </c>
+      <c r="C68">
+        <v>0.14199999999999999</v>
+      </c>
+      <c r="D68">
         <v>4.5600000000000002E-2</v>
       </c>
-      <c r="C68">
-        <v>0.192</v>
-      </c>
-      <c r="D68">
+      <c r="E68">
         <v>4.19E-2</v>
-      </c>
-      <c r="E68">
-        <v>0.14199999999999999</v>
       </c>
       <c r="F68">
         <v>1.95E-2</v>
@@ -4681,16 +7026,16 @@
         <v>0.19</v>
       </c>
       <c r="B69">
+        <v>0.19</v>
+      </c>
+      <c r="C69">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="D69">
         <v>4.5699999999999998E-2</v>
       </c>
-      <c r="C69">
-        <v>0.19</v>
-      </c>
-      <c r="D69">
+      <c r="E69">
         <v>4.2099999999999999E-2</v>
-      </c>
-      <c r="E69">
-        <v>0.14000000000000001</v>
       </c>
       <c r="F69">
         <v>1.9300000000000001E-2</v>
@@ -4701,16 +7046,16 @@
         <v>0.187</v>
       </c>
       <c r="B70">
+        <v>0.187</v>
+      </c>
+      <c r="C70">
+        <v>0.13800000000000001</v>
+      </c>
+      <c r="D70">
         <v>4.3900000000000002E-2</v>
       </c>
-      <c r="C70">
-        <v>0.187</v>
-      </c>
-      <c r="D70">
+      <c r="E70">
         <v>4.1300000000000003E-2</v>
-      </c>
-      <c r="E70">
-        <v>0.13800000000000001</v>
       </c>
       <c r="F70">
         <v>1.9099999999999999E-2</v>
@@ -4721,16 +7066,16 @@
         <v>0.19</v>
       </c>
       <c r="B71">
+        <v>0.185</v>
+      </c>
+      <c r="C71">
+        <v>0.13700000000000001</v>
+      </c>
+      <c r="D71">
         <v>4.5400000000000003E-2</v>
       </c>
-      <c r="C71">
-        <v>0.185</v>
-      </c>
-      <c r="D71">
+      <c r="E71">
         <v>4.1399999999999999E-2</v>
-      </c>
-      <c r="E71">
-        <v>0.13700000000000001</v>
       </c>
       <c r="F71">
         <v>1.89E-2</v>
@@ -4741,16 +7086,16 @@
         <v>0.187</v>
       </c>
       <c r="B72">
+        <v>0.184</v>
+      </c>
+      <c r="C72">
+        <v>0.13400000000000001</v>
+      </c>
+      <c r="D72">
         <v>4.4699999999999997E-2</v>
       </c>
-      <c r="C72">
-        <v>0.184</v>
-      </c>
-      <c r="D72">
+      <c r="E72">
         <v>4.0500000000000001E-2</v>
-      </c>
-      <c r="E72">
-        <v>0.13400000000000001</v>
       </c>
       <c r="F72">
         <v>1.8599999999999998E-2</v>
@@ -4761,16 +7106,16 @@
         <v>0.184</v>
       </c>
       <c r="B73">
+        <v>0.182</v>
+      </c>
+      <c r="C73">
+        <v>0.13700000000000001</v>
+      </c>
+      <c r="D73">
         <v>4.4200000000000003E-2</v>
       </c>
-      <c r="C73">
-        <v>0.182</v>
-      </c>
-      <c r="D73">
+      <c r="E73">
         <v>4.1200000000000001E-2</v>
-      </c>
-      <c r="E73">
-        <v>0.13700000000000001</v>
       </c>
       <c r="F73">
         <v>1.8800000000000001E-2</v>
@@ -4781,16 +7126,16 @@
         <v>0.18099999999999999</v>
       </c>
       <c r="B74">
+        <v>0.182</v>
+      </c>
+      <c r="C74">
+        <v>0.13300000000000001</v>
+      </c>
+      <c r="D74">
         <v>4.3299999999999998E-2</v>
       </c>
-      <c r="C74">
-        <v>0.182</v>
-      </c>
-      <c r="D74">
+      <c r="E74">
         <v>4.0399999999999998E-2</v>
-      </c>
-      <c r="E74">
-        <v>0.13300000000000001</v>
       </c>
       <c r="F74">
         <v>1.8100000000000002E-2</v>
@@ -4801,16 +7146,16 @@
         <v>0.185</v>
       </c>
       <c r="B75">
+        <v>0.18</v>
+      </c>
+      <c r="C75">
+        <v>0.13900000000000001</v>
+      </c>
+      <c r="D75">
         <v>4.3999999999999997E-2</v>
       </c>
-      <c r="C75">
-        <v>0.18</v>
-      </c>
-      <c r="D75">
+      <c r="E75">
         <v>4.0300000000000002E-2</v>
-      </c>
-      <c r="E75">
-        <v>0.13900000000000001</v>
       </c>
       <c r="F75">
         <v>1.83E-2</v>
@@ -4821,16 +7166,16 @@
         <v>0.17899999999999999</v>
       </c>
       <c r="B76">
+        <v>0.17299999999999999</v>
+      </c>
+      <c r="C76">
+        <v>0.13200000000000001</v>
+      </c>
+      <c r="D76">
         <v>4.24E-2</v>
       </c>
-      <c r="C76">
-        <v>0.17299999999999999</v>
-      </c>
-      <c r="D76">
+      <c r="E76">
         <v>3.85E-2</v>
-      </c>
-      <c r="E76">
-        <v>0.13200000000000001</v>
       </c>
       <c r="F76">
         <v>1.7899999999999999E-2</v>
@@ -4841,16 +7186,16 @@
         <v>0.17899999999999999</v>
       </c>
       <c r="B77">
+        <v>0.17199999999999999</v>
+      </c>
+      <c r="C77">
+        <v>0.13300000000000001</v>
+      </c>
+      <c r="D77">
         <v>4.2799999999999998E-2</v>
       </c>
-      <c r="C77">
-        <v>0.17199999999999999</v>
-      </c>
-      <c r="D77">
+      <c r="E77">
         <v>3.8300000000000001E-2</v>
-      </c>
-      <c r="E77">
-        <v>0.13300000000000001</v>
       </c>
       <c r="F77">
         <v>1.7899999999999999E-2</v>
@@ -4861,16 +7206,16 @@
         <v>0.17499999999999999</v>
       </c>
       <c r="B78">
+        <v>0.17100000000000001</v>
+      </c>
+      <c r="C78">
+        <v>0.129</v>
+      </c>
+      <c r="D78">
         <v>4.2099999999999999E-2</v>
       </c>
-      <c r="C78">
-        <v>0.17100000000000001</v>
-      </c>
-      <c r="D78">
+      <c r="E78">
         <v>3.7699999999999997E-2</v>
-      </c>
-      <c r="E78">
-        <v>0.129</v>
       </c>
       <c r="F78">
         <v>1.7899999999999999E-2</v>
@@ -4881,16 +7226,16 @@
         <v>0.183</v>
       </c>
       <c r="B79">
+        <v>0.16800000000000001</v>
+      </c>
+      <c r="C79">
+        <v>0.13400000000000001</v>
+      </c>
+      <c r="D79">
         <v>4.3700000000000003E-2</v>
       </c>
-      <c r="C79">
-        <v>0.16800000000000001</v>
-      </c>
-      <c r="D79">
+      <c r="E79">
         <v>3.7900000000000003E-2</v>
-      </c>
-      <c r="E79">
-        <v>0.13400000000000001</v>
       </c>
       <c r="F79">
         <v>1.7999999999999999E-2</v>
@@ -4901,16 +7246,16 @@
         <v>0.16</v>
       </c>
       <c r="B80">
+        <v>0.17199999999999999</v>
+      </c>
+      <c r="C80">
+        <v>0.13200000000000001</v>
+      </c>
+      <c r="D80">
         <v>3.7100000000000001E-2</v>
       </c>
-      <c r="C80">
-        <v>0.17199999999999999</v>
-      </c>
-      <c r="D80">
+      <c r="E80">
         <v>3.7999999999999999E-2</v>
-      </c>
-      <c r="E80">
-        <v>0.13200000000000001</v>
       </c>
       <c r="F80">
         <v>1.77E-2</v>
@@ -4921,16 +7266,16 @@
         <v>0.13500000000000001</v>
       </c>
       <c r="B81">
+        <v>0.16700000000000001</v>
+      </c>
+      <c r="C81">
+        <v>0.113</v>
+      </c>
+      <c r="D81">
         <v>3.1300000000000001E-2</v>
       </c>
-      <c r="C81">
-        <v>0.16700000000000001</v>
-      </c>
-      <c r="D81">
+      <c r="E81">
         <v>3.7400000000000003E-2</v>
-      </c>
-      <c r="E81">
-        <v>0.113</v>
       </c>
       <c r="F81">
         <v>1.6799999999999999E-2</v>
@@ -4941,16 +7286,16 @@
         <v>0.13100000000000001</v>
       </c>
       <c r="B82">
+        <v>0.16900000000000001</v>
+      </c>
+      <c r="C82">
+        <v>0.10199999999999999</v>
+      </c>
+      <c r="D82">
         <v>3.1600000000000003E-2</v>
       </c>
-      <c r="C82">
-        <v>0.16900000000000001</v>
-      </c>
-      <c r="D82">
+      <c r="E82">
         <v>3.8199999999999998E-2</v>
-      </c>
-      <c r="E82">
-        <v>0.10199999999999999</v>
       </c>
       <c r="F82">
         <v>1.5800000000000002E-2</v>
@@ -4961,16 +7306,16 @@
         <v>0.129</v>
       </c>
       <c r="B83">
+        <v>0.16500000000000001</v>
+      </c>
+      <c r="C83">
+        <v>9.7000000000000003E-2</v>
+      </c>
+      <c r="D83">
         <v>3.1800000000000002E-2</v>
       </c>
-      <c r="C83">
-        <v>0.16500000000000001</v>
-      </c>
-      <c r="D83">
+      <c r="E83">
         <v>3.6799999999999999E-2</v>
-      </c>
-      <c r="E83">
-        <v>9.7000000000000003E-2</v>
       </c>
       <c r="F83">
         <v>1.52E-2</v>
@@ -4981,16 +7326,16 @@
         <v>0.13</v>
       </c>
       <c r="B84">
+        <v>0.16800000000000001</v>
+      </c>
+      <c r="C84">
+        <v>9.5000000000000001E-2</v>
+      </c>
+      <c r="D84">
         <v>3.2399999999999998E-2</v>
       </c>
-      <c r="C84">
-        <v>0.16800000000000001</v>
-      </c>
-      <c r="D84">
+      <c r="E84">
         <v>3.7199999999999997E-2</v>
-      </c>
-      <c r="E84">
-        <v>9.5000000000000001E-2</v>
       </c>
       <c r="F84">
         <v>1.5100000000000001E-2</v>
@@ -5001,16 +7346,16 @@
         <v>0.125</v>
       </c>
       <c r="B85">
+        <v>0.16300000000000001</v>
+      </c>
+      <c r="C85">
+        <v>9.8000000000000004E-2</v>
+      </c>
+      <c r="D85">
         <v>3.1099999999999999E-2</v>
       </c>
-      <c r="C85">
-        <v>0.16300000000000001</v>
-      </c>
-      <c r="D85">
+      <c r="E85">
         <v>3.6600000000000001E-2</v>
-      </c>
-      <c r="E85">
-        <v>9.8000000000000004E-2</v>
       </c>
       <c r="F85">
         <v>1.4999999999999999E-2</v>
@@ -5021,16 +7366,16 @@
         <v>0.129</v>
       </c>
       <c r="B86">
+        <v>0.16300000000000001</v>
+      </c>
+      <c r="C86">
+        <v>9.1999999999999998E-2</v>
+      </c>
+      <c r="D86">
         <v>3.1800000000000002E-2</v>
       </c>
-      <c r="C86">
-        <v>0.16300000000000001</v>
-      </c>
-      <c r="D86">
+      <c r="E86">
         <v>3.6400000000000002E-2</v>
-      </c>
-      <c r="E86">
-        <v>9.1999999999999998E-2</v>
       </c>
       <c r="F86">
         <v>1.4800000000000001E-2</v>
@@ -5041,16 +7386,16 @@
         <v>0.124</v>
       </c>
       <c r="B87">
+        <v>0.16</v>
+      </c>
+      <c r="C87">
+        <v>8.8999999999999996E-2</v>
+      </c>
+      <c r="D87">
         <v>3.0800000000000001E-2</v>
       </c>
-      <c r="C87">
-        <v>0.16</v>
-      </c>
-      <c r="D87">
+      <c r="E87">
         <v>3.5499999999999997E-2</v>
-      </c>
-      <c r="E87">
-        <v>8.8999999999999996E-2</v>
       </c>
       <c r="F87">
         <v>1.47E-2</v>
@@ -5061,16 +7406,16 @@
         <v>0.12</v>
       </c>
       <c r="B88">
+        <v>0.16200000000000001</v>
+      </c>
+      <c r="C88">
+        <v>9.0999999999999998E-2</v>
+      </c>
+      <c r="D88">
         <v>2.98E-2</v>
       </c>
-      <c r="C88">
-        <v>0.16200000000000001</v>
-      </c>
-      <c r="D88">
+      <c r="E88">
         <v>3.6400000000000002E-2</v>
-      </c>
-      <c r="E88">
-        <v>9.0999999999999998E-2</v>
       </c>
       <c r="F88">
         <v>1.4800000000000001E-2</v>
@@ -5081,16 +7426,16 @@
         <v>0.122</v>
       </c>
       <c r="B89">
+        <v>0.16</v>
+      </c>
+      <c r="C89">
+        <v>8.6999999999999994E-2</v>
+      </c>
+      <c r="D89">
         <v>3.1099999999999999E-2</v>
       </c>
-      <c r="C89">
-        <v>0.16</v>
-      </c>
-      <c r="D89">
+      <c r="E89">
         <v>3.61E-2</v>
-      </c>
-      <c r="E89">
-        <v>8.6999999999999994E-2</v>
       </c>
       <c r="F89">
         <v>1.44E-2</v>
@@ -5101,16 +7446,16 @@
         <v>0.11799999999999999</v>
       </c>
       <c r="B90">
+        <v>0.16</v>
+      </c>
+      <c r="C90">
+        <v>9.0999999999999998E-2</v>
+      </c>
+      <c r="D90">
         <v>2.87E-2</v>
       </c>
-      <c r="C90">
-        <v>0.16</v>
-      </c>
-      <c r="D90">
+      <c r="E90">
         <v>3.5499999999999997E-2</v>
-      </c>
-      <c r="E90">
-        <v>9.0999999999999998E-2</v>
       </c>
       <c r="F90">
         <v>1.46E-2</v>
@@ -5121,16 +7466,16 @@
         <v>0.11700000000000001</v>
       </c>
       <c r="B91">
+        <v>0.16200000000000001</v>
+      </c>
+      <c r="C91">
+        <v>8.8999999999999996E-2</v>
+      </c>
+      <c r="D91">
         <v>2.9499999999999998E-2</v>
       </c>
-      <c r="C91">
-        <v>0.16200000000000001</v>
-      </c>
-      <c r="D91">
+      <c r="E91">
         <v>3.5700000000000003E-2</v>
-      </c>
-      <c r="E91">
-        <v>8.8999999999999996E-2</v>
       </c>
       <c r="F91">
         <v>1.43E-2</v>
@@ -5141,16 +7486,16 @@
         <v>0.11600000000000001</v>
       </c>
       <c r="B92">
+        <v>0.161</v>
+      </c>
+      <c r="C92">
+        <v>8.5999999999999993E-2</v>
+      </c>
+      <c r="D92">
         <v>2.9399999999999999E-2</v>
       </c>
-      <c r="C92">
-        <v>0.161</v>
-      </c>
-      <c r="D92">
+      <c r="E92">
         <v>3.5900000000000001E-2</v>
-      </c>
-      <c r="E92">
-        <v>8.5999999999999993E-2</v>
       </c>
       <c r="F92">
         <v>1.4E-2</v>
@@ -5161,16 +7506,16 @@
         <v>0.11600000000000001</v>
       </c>
       <c r="B93">
+        <v>0.154</v>
+      </c>
+      <c r="C93">
+        <v>8.7999999999999995E-2</v>
+      </c>
+      <c r="D93">
         <v>2.86E-2</v>
       </c>
-      <c r="C93">
-        <v>0.154</v>
-      </c>
-      <c r="D93">
+      <c r="E93">
         <v>3.4500000000000003E-2</v>
-      </c>
-      <c r="E93">
-        <v>8.7999999999999995E-2</v>
       </c>
       <c r="F93">
         <v>1.4200000000000001E-2</v>
@@ -5181,16 +7526,16 @@
         <v>0.112</v>
       </c>
       <c r="B94">
+        <v>0.157</v>
+      </c>
+      <c r="C94">
+        <v>8.2000000000000003E-2</v>
+      </c>
+      <c r="D94">
         <v>2.8199999999999999E-2</v>
       </c>
-      <c r="C94">
-        <v>0.157</v>
-      </c>
-      <c r="D94">
+      <c r="E94">
         <v>3.5299999999999998E-2</v>
-      </c>
-      <c r="E94">
-        <v>8.2000000000000003E-2</v>
       </c>
       <c r="F94">
         <v>1.38E-2</v>
@@ -5201,12 +7546,12 @@
         <v>0.113</v>
       </c>
       <c r="B95">
+        <v>0.159</v>
+      </c>
+      <c r="D95">
         <v>2.8400000000000002E-2</v>
       </c>
-      <c r="C95">
-        <v>0.159</v>
-      </c>
-      <c r="D95">
+      <c r="E95">
         <v>3.5400000000000001E-2</v>
       </c>
     </row>
@@ -5214,168 +7559,374 @@
       <c r="A96">
         <v>0.115</v>
       </c>
-      <c r="B96">
+      <c r="D96">
         <v>2.8899999999999999E-2</v>
       </c>
     </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A97">
         <v>0.11</v>
       </c>
-      <c r="B97">
+      <c r="D97">
         <v>2.7099999999999999E-2</v>
       </c>
     </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A98">
         <v>0.111</v>
       </c>
-      <c r="B98">
+      <c r="D98">
         <v>2.8400000000000002E-2</v>
       </c>
     </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A99">
         <v>0.114</v>
       </c>
-      <c r="B99">
+      <c r="D99">
         <v>2.87E-2</v>
       </c>
     </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A100">
         <v>0.108</v>
       </c>
-      <c r="B100">
+      <c r="D100">
         <v>2.7E-2</v>
       </c>
     </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A101">
         <v>0.108</v>
       </c>
-      <c r="B101">
+      <c r="D101">
         <v>2.7300000000000001E-2</v>
       </c>
     </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A102">
         <v>0.111</v>
       </c>
-      <c r="B102">
+      <c r="D102">
         <v>2.8000000000000001E-2</v>
       </c>
     </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A103">
         <v>0.109</v>
       </c>
-      <c r="B103">
+      <c r="D103">
         <v>2.81E-2</v>
       </c>
     </row>
-    <row r="104" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A104">
         <v>0.111</v>
       </c>
-      <c r="B104">
+      <c r="D104">
         <v>2.81E-2</v>
       </c>
     </row>
-    <row r="105" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A105">
         <v>0.108</v>
       </c>
-      <c r="B105">
+      <c r="D105">
         <v>2.7099999999999999E-2</v>
       </c>
     </row>
-    <row r="106" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A106">
         <v>0.105</v>
       </c>
-      <c r="B106">
+      <c r="D106">
         <v>2.5899999999999999E-2</v>
       </c>
     </row>
-    <row r="107" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A107">
         <v>0.107</v>
       </c>
-      <c r="B107">
+      <c r="D107">
         <v>2.64E-2</v>
       </c>
     </row>
-    <row r="108" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A108">
         <v>0.105</v>
       </c>
-      <c r="B108">
+      <c r="D108">
         <v>2.5999999999999999E-2</v>
       </c>
     </row>
-    <row r="109" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A109">
         <v>0.104</v>
       </c>
-      <c r="B109">
+      <c r="D109">
         <v>2.69E-2</v>
       </c>
     </row>
-    <row r="110" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A110">
         <v>0.106</v>
       </c>
-      <c r="B110">
+      <c r="D110">
         <v>2.64E-2</v>
       </c>
     </row>
-    <row r="111" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A111">
         <v>0.104</v>
       </c>
-      <c r="B111">
+      <c r="D111">
         <v>2.6499999999999999E-2</v>
       </c>
     </row>
-    <row r="112" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A112">
         <v>0.106</v>
       </c>
-      <c r="B112">
+      <c r="D112">
         <v>2.69E-2</v>
       </c>
     </row>
-    <row r="113" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A113">
         <v>0.10100000000000001</v>
       </c>
-      <c r="B113">
+      <c r="D113">
         <v>2.47E-2</v>
       </c>
     </row>
-    <row r="114" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A114">
         <v>0.10100000000000001</v>
       </c>
-      <c r="B114">
+      <c r="D114">
         <v>2.5100000000000001E-2</v>
       </c>
     </row>
-    <row r="115" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A115">
         <v>0.10199999999999999</v>
       </c>
-      <c r="B115">
+      <c r="D115">
         <v>2.52E-2</v>
       </c>
     </row>
-    <row r="116" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A116">
         <v>9.9000000000000005E-2</v>
       </c>
-      <c r="B116">
+      <c r="D116">
         <v>2.52E-2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C8"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="23.6640625" customWidth="1"/>
+    <col min="3" max="5" width="16.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>34</v>
+      </c>
+      <c r="C2">
+        <v>12.7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>5</v>
+      </c>
+      <c r="B3">
+        <v>32.299999999999997</v>
+      </c>
+      <c r="C3">
+        <v>12.4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>10</v>
+      </c>
+      <c r="B4">
+        <v>30.9</v>
+      </c>
+      <c r="C4">
+        <v>12.3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>50</v>
+      </c>
+      <c r="B5">
+        <v>28.9</v>
+      </c>
+      <c r="C5">
+        <v>12.2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>100</v>
+      </c>
+      <c r="B6">
+        <v>28.9</v>
+      </c>
+      <c r="C6">
+        <v>12.2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>500</v>
+      </c>
+      <c r="B7">
+        <v>28.9</v>
+      </c>
+      <c r="C7">
+        <v>12.2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>1000</v>
+      </c>
+      <c r="B8">
+        <v>28.8</v>
+      </c>
+      <c r="C8">
+        <v>12.2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="25" customWidth="1"/>
+    <col min="3" max="3" width="21.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>28.7</v>
+      </c>
+      <c r="C2" s="1">
+        <v>14.4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>1E-3</v>
+      </c>
+      <c r="B3">
+        <v>26.3</v>
+      </c>
+      <c r="C3">
+        <v>13.4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="B4">
+        <v>19.2</v>
+      </c>
+      <c r="C4">
+        <v>10.9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>0.01</v>
+      </c>
+      <c r="B5">
+        <v>19.100000000000001</v>
+      </c>
+      <c r="C5">
+        <v>9.1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>0.05</v>
+      </c>
+      <c r="B6">
+        <v>69.5</v>
+      </c>
+      <c r="C6">
+        <v>28.3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>0.1</v>
+      </c>
+      <c r="B7">
+        <v>96.2</v>
+      </c>
+      <c r="C7">
+        <v>83.9</v>
       </c>
     </row>
   </sheetData>
